--- a/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
+++ b/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Paquete</t>
   </si>
@@ -76,19 +76,13 @@
     <t>dbx_v1_s50_r16_a35_bX_da0_de0_dr0</t>
   </si>
   <si>
-    <t>dbx_v1_s50_r16_a50_bX_da0_de0_dr0</t>
-  </si>
-  <si>
-    <t>dbx_v1_s50_r16_am6_bX_da0_de0_dr0</t>
-  </si>
-  <si>
-    <t>dbx_v1_s50_r16_am18_bX_da0_de0_dr0</t>
-  </si>
-  <si>
-    <t>dbx_v1_s50_r16_am25_bX_da0_de0_dr0</t>
-  </si>
-  <si>
-    <t>Terminado</t>
+    <t>dbx_v1_s50_r16_a22_bX_da0_de0_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_a30_bX_da0_de0_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_a25_b0_da0_deX_dr0</t>
   </si>
 </sst>
 </file>
@@ -187,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -195,14 +189,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,14 +507,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -527,221 +524,183 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
     </row>
   </sheetData>

--- a/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
+++ b/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Paquete</t>
   </si>
@@ -79,17 +79,20 @@
     <t>dbx_v1_s50_r16_a22_bX_da0_de0_dr0</t>
   </si>
   <si>
-    <t>dbx_v1_s50_r16_a30_bX_da0_de0_dr0</t>
-  </si>
-  <si>
     <t>dbx_v1_s50_r16_a25_b0_da0_deX_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_a22_b0_da0_deX_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_a35_b0_da0_deX_dr0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +126,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -199,6 +209,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +523,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +546,7 @@
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -539,7 +555,7 @@
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
@@ -548,7 +564,7 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
@@ -557,7 +573,7 @@
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
@@ -566,7 +582,7 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
@@ -575,7 +591,7 @@
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
@@ -584,7 +600,7 @@
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
@@ -593,7 +609,7 @@
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
@@ -602,7 +618,7 @@
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
@@ -611,7 +627,7 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
@@ -621,7 +637,7 @@
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2"/>
@@ -630,7 +646,7 @@
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
@@ -639,7 +655,7 @@
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
@@ -648,7 +664,7 @@
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3"/>
@@ -657,7 +673,7 @@
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2"/>
@@ -666,7 +682,7 @@
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
@@ -675,32 +691,36 @@
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" s="4"/>
     </row>
   </sheetData>

--- a/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
+++ b/Modelling and Control/DroneBoX/Modelo CFD DroneBoX/Hoja de casos CFD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Paquete</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>dbx_v1_s50_r16_a35_b0_da0_deX_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_a90_b0_da0_de0_dr0</t>
+  </si>
+  <si>
+    <t>dbx_v1_s50_r16_am90_b0_da0_de0_dr0</t>
   </si>
 </sst>
 </file>
@@ -149,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,11 +193,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -214,6 +240,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +755,22 @@
       </c>
       <c r="C21" s="4"/>
     </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
